--- a/biology/Histoire de la zoologie et de la botanique/Friedrich_Julius_Schilsky/Friedrich_Julius_Schilsky.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Friedrich_Julius_Schilsky/Friedrich_Julius_Schilsky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Julius Schilsky est un entomologiste allemand, né en 1848 et mort en 1912.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet enseignant est le secrétaire de la Société d’entomologie de Berlin. Son œuvre principale est un catalogue des coléoptères d’Allemagne : Systematisches Verzeichnis der Käfer Deutschlands, mit besonderer Berücksichtigung ihrer geographischen Verbreitung. Zugleich ein Käfer-Verzeichnis der Mark Brandenburg (Berlin, 1888). En 1894, il prend la succession de la publication de Die Käfer Europas initiée par Heinrich Carl Küster (1807-1876), poursuivie brièvement par Ernst Gustav Kraatz (1831-1909) et Ernst August Hellmuth von Kiesenwetter (1820-1880). Schilsky publie les dix-sept derniers volumes, le dernier paraissant en 1911. Ses collections sont aujourd’hui conservées au musée d'histoire naturelle de Berlin.
 </t>
